--- a/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/衣着类农村居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/衣着类农村居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,632 +493,240 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99.3</v>
+      </c>
       <c r="D2" t="n">
-        <v>98.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="E2" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F2" t="n">
         <v>98.7</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>102.3</v>
+      </c>
       <c r="H2" t="n">
-        <v>98.09999999999999</v>
+        <v>103.1</v>
       </c>
       <c r="I2" t="n">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>99.2</v>
+        <v>101.3</v>
       </c>
       <c r="K2" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="L2" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.8</v>
+        <v>103.4</v>
       </c>
       <c r="C3" t="n">
-        <v>97.8</v>
+        <v>101.5</v>
       </c>
       <c r="D3" t="n">
-        <v>99.09999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="E3" t="n">
-        <v>98.2</v>
+        <v>101.95873535</v>
       </c>
       <c r="F3" t="n">
-        <v>98.3</v>
+        <v>101.9</v>
       </c>
       <c r="G3" t="n">
+        <v>106.03797175</v>
+      </c>
+      <c r="H3" t="n">
+        <v>109.40705249</v>
+      </c>
+      <c r="I3" t="n">
+        <v>101.89640669</v>
+      </c>
+      <c r="J3" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="K3" t="n">
         <v>100.4</v>
       </c>
-      <c r="H3" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>99.8</v>
-      </c>
       <c r="L3" t="n">
-        <v>99.8</v>
+        <v>100.70200062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.8</v>
+        <v>104.6</v>
       </c>
       <c r="C4" t="n">
-        <v>98</v>
+        <v>103.6</v>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>103.5</v>
       </c>
       <c r="E4" t="n">
-        <v>98</v>
+        <v>103.91730819</v>
       </c>
       <c r="F4" t="n">
-        <v>97.40000000000001</v>
+        <v>104</v>
       </c>
       <c r="G4" t="n">
-        <v>98.90000000000001</v>
+        <v>106.70888384</v>
       </c>
       <c r="H4" t="n">
-        <v>99.09999999999999</v>
+        <v>103.69051881</v>
       </c>
       <c r="I4" t="n">
-        <v>98.40000000000001</v>
+        <v>103.79140936</v>
       </c>
       <c r="J4" t="n">
-        <v>99.59999999999999</v>
+        <v>103.6</v>
       </c>
       <c r="K4" t="n">
-        <v>98.7</v>
+        <v>103.2</v>
       </c>
       <c r="L4" t="n">
-        <v>98.90000000000001</v>
+        <v>103.29088608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.3</v>
+        <v>103.2</v>
       </c>
       <c r="C5" t="n">
-        <v>98.40000000000001</v>
+        <v>102.4</v>
       </c>
       <c r="D5" t="n">
-        <v>98.90000000000001</v>
+        <v>101.8</v>
       </c>
       <c r="E5" t="n">
-        <v>98.4717</v>
+        <v>102.7</v>
       </c>
       <c r="F5" t="n">
-        <v>97.90000000000001</v>
+        <v>102.8</v>
       </c>
       <c r="G5" t="n">
-        <v>100.7817</v>
+        <v>107.41913131</v>
       </c>
       <c r="H5" t="n">
-        <v>99.8141</v>
+        <v>103.1795838</v>
       </c>
       <c r="I5" t="n">
-        <v>98.5705</v>
+        <v>102.5</v>
       </c>
       <c r="J5" t="n">
-        <v>99.3</v>
+        <v>101.7</v>
       </c>
       <c r="K5" t="n">
-        <v>98.09999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="L5" t="n">
-        <v>98.37869999999999</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.7</v>
+        <v>103.2</v>
       </c>
       <c r="C6" t="n">
-        <v>97.90000000000001</v>
+        <v>102.3</v>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>101.8</v>
       </c>
       <c r="E6" t="n">
-        <v>98.1002</v>
+        <v>102.4</v>
       </c>
       <c r="F6" t="n">
-        <v>97.90000000000001</v>
+        <v>102.3</v>
       </c>
       <c r="G6" t="n">
-        <v>100.7721</v>
+        <v>105.96070424</v>
       </c>
       <c r="H6" t="n">
-        <v>100.4602</v>
+        <v>103.10427072</v>
       </c>
       <c r="I6" t="n">
-        <v>98.4436</v>
+        <v>102.4</v>
       </c>
       <c r="J6" t="n">
-        <v>99.3</v>
+        <v>101.3</v>
       </c>
       <c r="K6" t="n">
-        <v>98.40000000000001</v>
+        <v>101.8</v>
       </c>
       <c r="L6" t="n">
-        <v>98.5556</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59999999999999</v>
+        <v>103.3</v>
       </c>
       <c r="C7" t="n">
-        <v>98.7</v>
+        <v>102.4</v>
       </c>
       <c r="D7" t="n">
-        <v>100.5</v>
+        <v>101.9</v>
       </c>
       <c r="E7" t="n">
-        <v>98.6759</v>
+        <v>102.50362465</v>
       </c>
       <c r="F7" t="n">
-        <v>98.2</v>
+        <v>102.3</v>
       </c>
       <c r="G7" t="n">
-        <v>101.0715</v>
+        <v>105.20221621</v>
       </c>
       <c r="H7" t="n">
-        <v>100.3923</v>
+        <v>102.17397995</v>
       </c>
       <c r="I7" t="n">
-        <v>99.0523</v>
+        <v>102.32905857</v>
       </c>
       <c r="J7" t="n">
-        <v>100.7</v>
+        <v>101.6</v>
       </c>
       <c r="K7" t="n">
-        <v>99.09999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="L7" t="n">
-        <v>99.42310000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>99.05900079</v>
-      </c>
-      <c r="F8" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>101.30453517</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100.76321389</v>
-      </c>
-      <c r="I8" t="n">
-        <v>99.55044801</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>100.35465788</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>99.84233877</v>
-      </c>
-      <c r="F9" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G9" t="n">
-        <v>102.31391607</v>
-      </c>
-      <c r="H9" t="n">
-        <v>101.90210438</v>
-      </c>
-      <c r="I9" t="n">
-        <v>100.16263671</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>100.47790811</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>98.81371163999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>103.02117186</v>
-      </c>
-      <c r="H10" t="n">
-        <v>103.01136908</v>
-      </c>
-      <c r="I10" t="n">
-        <v>99.35706872</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>99.75995930000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>98.0738678</v>
-      </c>
-      <c r="F11" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>102.50502637</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100.72183606</v>
-      </c>
-      <c r="I11" t="n">
-        <v>98.42941458</v>
-      </c>
-      <c r="J11" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>98.60442393</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>101.95873535</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>106.03797175</v>
-      </c>
-      <c r="H13" t="n">
-        <v>109.40705249</v>
-      </c>
-      <c r="I13" t="n">
-        <v>101.89640669</v>
-      </c>
-      <c r="J13" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>100.70200062</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>103.91730819</v>
-      </c>
-      <c r="F14" t="n">
-        <v>104</v>
-      </c>
-      <c r="G14" t="n">
-        <v>106.70888384</v>
-      </c>
-      <c r="H14" t="n">
-        <v>103.69051881</v>
-      </c>
-      <c r="I14" t="n">
-        <v>103.79140936</v>
-      </c>
-      <c r="J14" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>103.29088608</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>107.41913131</v>
-      </c>
-      <c r="H15" t="n">
-        <v>103.1795838</v>
-      </c>
-      <c r="I15" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="L15" t="n">
-        <v>101.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>105.96070424</v>
-      </c>
-      <c r="H16" t="n">
-        <v>103.10427072</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>102.50362465</v>
-      </c>
-      <c r="F17" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>105.20221621</v>
-      </c>
-      <c r="H17" t="n">
-        <v>102.17397995</v>
-      </c>
-      <c r="I17" t="n">
-        <v>102.32905857</v>
-      </c>
-      <c r="J17" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="L17" t="n">
         <v>101.67681792</v>
       </c>
     </row>
